--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.1/test_case_4_twenty_bus_radial_grid_Yyn_pf_sc_results_0_bus.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.1/test_case_4_twenty_bus_radial_grid_Yyn_pf_sc_results_0_bus.xlsx
@@ -1127,28 +1127,28 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.9526279647803686</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647833884</v>
+        <v>0.9526279647833882</v>
       </c>
       <c r="Q2">
-        <v>-8.692737297876698E-11</v>
+        <v>-8.693741207553275E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1198,16 +1198,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279474464776</v>
+        <v>0.9526279474464771</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172765</v>
+        <v>0.9526279821172763</v>
       </c>
       <c r="Q3">
-        <v>8.709503194548235E-08</v>
+        <v>8.709502424387457E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777255</v>
+        <v>0.9526279330777248</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860248</v>
       </c>
       <c r="Q4">
-        <v>5.191989519579222E-07</v>
+        <v>5.191989589406266E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1316,22 +1316,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027254</v>
+        <v>0.9526279361027251</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610251</v>
+        <v>0.952627993461025</v>
       </c>
       <c r="Q5">
-        <v>4.282296748717816E-07</v>
+        <v>4.282296720989935E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9526279315652249</v>
+        <v>0.9526279315652242</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279979985249</v>
+        <v>0.9526279979985247</v>
       </c>
       <c r="Q6">
-        <v>5.64683533754134E-07</v>
+        <v>5.646835271261655E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.952627927783974</v>
+        <v>0.9526279277839736</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797747</v>
+        <v>0.9526280017797745</v>
       </c>
       <c r="Q7">
-        <v>6.783950819009531E-07</v>
+        <v>6.78395075273015E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277238</v>
+        <v>0.9526279270277234</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0.9526280025360245</v>
       </c>
       <c r="Q8">
-        <v>7.011373844519083E-07</v>
+        <v>7.011373855344089E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1552,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9526279255152237</v>
+        <v>0.9526279255152232</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485245</v>
+        <v>0.9526280040485244</v>
       </c>
       <c r="Q9">
-        <v>7.466220126868786E-07</v>
+        <v>7.466220022037394E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027233</v>
+        <v>0.9526279240027229</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610246</v>
+        <v>0.9526280055610244</v>
       </c>
       <c r="Q10">
-        <v>7.921066228175838E-07</v>
+        <v>7.921066161896725E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1670,16 +1670,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279232464733</v>
+        <v>0.9526279232464729</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172746</v>
+        <v>0.9526280063172745</v>
       </c>
       <c r="Q11">
-        <v>8.148489311748431E-07</v>
+        <v>8.148489206917171E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1729,16 +1729,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777264</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860265</v>
       </c>
       <c r="Q12">
-        <v>1.553219451207458E-07</v>
+        <v>1.55321937879226E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1788,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777264</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860266</v>
+        <v>0.9526279843860265</v>
       </c>
       <c r="Q13">
-        <v>1.553219451207458E-07</v>
+        <v>1.55321937879226E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1847,16 +1847,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9526279429089768</v>
+        <v>0.9526279429089762</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547762</v>
+        <v>0.9526279866547759</v>
       </c>
       <c r="Q14">
-        <v>2.235488918552467E-07</v>
+        <v>2.235489021707923E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964764</v>
+        <v>0.9526279413964761</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279881672759</v>
+        <v>0.9526279881672758</v>
       </c>
       <c r="Q15">
-        <v>2.690335080982673E-07</v>
+        <v>2.690335014702171E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339767</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297765</v>
+        <v>0.9526279836297764</v>
       </c>
       <c r="Q16">
-        <v>1.325796339554086E-07</v>
+        <v>1.325796267138855E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339767</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297765</v>
+        <v>0.9526279836297764</v>
       </c>
       <c r="Q17">
-        <v>1.325796339554086E-07</v>
+        <v>1.325796267138855E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277263</v>
+        <v>0.9526279391277257</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360259</v>
+        <v>0.9526279904360254</v>
       </c>
       <c r="Q18">
-        <v>3.372604539726677E-07</v>
+        <v>3.372604676007686E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2142,16 +2142,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.952627936102726</v>
+        <v>0.9526279361027252</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610256</v>
+        <v>0.9526279934610251</v>
       </c>
       <c r="Q19">
-        <v>4.282297096648907E-07</v>
+        <v>4.282297166058694E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339756</v>
+        <v>0.9526279338339748</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297753</v>
+        <v>0.9526279957297747</v>
       </c>
       <c r="Q20">
-        <v>4.964566497956605E-07</v>
+        <v>4.964566570810795E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777255</v>
+        <v>0.9526279330777248</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860253</v>
+        <v>0.9526279964860248</v>
       </c>
       <c r="Q21">
-        <v>5.191989597681852E-07</v>
+        <v>5.191989631983896E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2373,19 +2373,19 @@
         <v>8.768652669144455</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646417</v>
+        <v>0.01094540889646412</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -2571,7 +2571,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O5">
-        <v>1.073936237813092</v>
+        <v>1.073936237813093</v>
       </c>
       <c r="P5">
         <v>1.084507397868702</v>
@@ -3108,7 +3108,7 @@
         <v>1.084507397695035</v>
       </c>
       <c r="Q14">
-        <v>29.14059841760101</v>
+        <v>29.140598417601</v>
       </c>
       <c r="R14">
         <v>-91.10214740493385</v>
@@ -3397,7 +3397,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O19">
-        <v>1.073936237813092</v>
+        <v>1.073936237813093</v>
       </c>
       <c r="P19">
         <v>1.084507397868702</v>
@@ -3631,13 +3631,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -4360,7 +4360,7 @@
         <v>1.084507397705908</v>
       </c>
       <c r="Q14">
-        <v>29.14059841750815</v>
+        <v>29.14059841750816</v>
       </c>
       <c r="R14">
         <v>-91.10214740282214</v>
@@ -4419,7 +4419,7 @@
         <v>1.084507397744501</v>
       </c>
       <c r="Q15">
-        <v>29.14059841831168</v>
+        <v>29.14059841831169</v>
       </c>
       <c r="R15">
         <v>-91.1021473974759</v>
@@ -4596,7 +4596,7 @@
         <v>1.08450739780239</v>
       </c>
       <c r="Q18">
-        <v>29.14059841951697</v>
+        <v>29.14059841951698</v>
       </c>
       <c r="R18">
         <v>-91.10214738945653</v>
@@ -4655,7 +4655,7 @@
         <v>1.084507397879575</v>
       </c>
       <c r="Q19">
-        <v>29.14059842112403</v>
+        <v>29.14059842112402</v>
       </c>
       <c r="R19">
         <v>-91.10214737876403</v>
@@ -4877,19 +4877,19 @@
         <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -4904,7 +4904,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.72006618412423E-10</v>
+        <v>1.72008026738463E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4954,16 +4954,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640276</v>
+        <v>0.8660253881640282</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054653</v>
+        <v>0.8660254194054658</v>
       </c>
       <c r="Q3">
-        <v>8.659289731889575E-08</v>
+        <v>8.65929750879765E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5013,22 +5013,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015297</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679623</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q4">
-        <v>9.162329138186051E-07</v>
+        <v>9.162327728425871E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -5072,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515274</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179623</v>
+        <v>0.8660254297179634</v>
       </c>
       <c r="Q5">
-        <v>7.415717711933622E-07</v>
+        <v>7.415718245273003E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -5131,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265275</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025433842961</v>
+        <v>0.8660254338429622</v>
       </c>
       <c r="Q6">
-        <v>1.003563321509257E-06</v>
+        <v>1.003563372008883E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890275</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804603</v>
+        <v>0.8660254372804611</v>
       </c>
       <c r="Q7">
-        <v>1.221889617405763E-06</v>
+        <v>1.221889659076359E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781019</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -5249,22 +5249,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015278</v>
+        <v>0.8660253696015313</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679599</v>
+        <v>0.8660254379679609</v>
       </c>
       <c r="Q8">
-        <v>1.265554879038831E-06</v>
+        <v>1.265554902563667E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344366</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -5308,16 +5308,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265278</v>
+        <v>0.8660253682265315</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429596</v>
+        <v>0.8660254393429606</v>
       </c>
       <c r="Q9">
-        <v>1.352885386793437E-06</v>
+        <v>1.352885432299792E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5367,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.866025366851528</v>
+        <v>0.8660253668515318</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179592</v>
+        <v>0.8660254407179605</v>
       </c>
       <c r="Q10">
-        <v>1.440215894512868E-06</v>
+        <v>1.440215951782804E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5426,22 +5426,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.866025366164028</v>
+        <v>0.8660253661640319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.866025441405459</v>
+        <v>0.8660254414054603</v>
       </c>
       <c r="Q11">
-        <v>1.483881151265815E-06</v>
+        <v>1.483881204011456E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161104</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -5485,22 +5485,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015278</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679648</v>
+        <v>0.8660254214679656</v>
       </c>
       <c r="Q12">
-        <v>2.175886556586669E-07</v>
+        <v>2.17588746672302E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5544,22 +5544,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015278</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679648</v>
+        <v>0.8660254214679656</v>
       </c>
       <c r="Q13">
-        <v>2.175886556586669E-07</v>
+        <v>2.17588746672302E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5603,22 +5603,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390278</v>
+        <v>0.8660253840390285</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304641</v>
+        <v>0.866025423530465</v>
       </c>
       <c r="Q14">
-        <v>3.485844844712047E-07</v>
+        <v>3.485844859174236E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5662,16 +5662,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640275</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054636</v>
+        <v>0.8660254249054645</v>
       </c>
       <c r="Q15">
-        <v>4.35914961533426E-07</v>
+        <v>4.359150277146149E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5721,16 +5721,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890277</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.866025420780465</v>
+        <v>0.8660254207804657</v>
       </c>
       <c r="Q16">
-        <v>1.739233966754888E-07</v>
+        <v>1.73923492213419E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5780,16 +5780,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890277</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.866025420780465</v>
+        <v>0.8660254207804657</v>
       </c>
       <c r="Q17">
-        <v>1.739233966754888E-07</v>
+        <v>1.73923492213419E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5839,22 +5839,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015282</v>
+        <v>0.8660253806015288</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679633</v>
+        <v>0.8660254269679643</v>
       </c>
       <c r="Q18">
-        <v>5.669108040132811E-07</v>
+        <v>5.669107533133141E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330806</v>
+        <v>179.9999994330807</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -5898,22 +5898,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515287</v>
+        <v>0.8660253778515293</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179636</v>
       </c>
       <c r="Q19">
-        <v>7.415718596091567E-07</v>
+        <v>7.415717650998014E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -5957,22 +5957,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890287</v>
+        <v>0.8660253757890295</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804622</v>
+        <v>0.8660254317804628</v>
       </c>
       <c r="Q20">
-        <v>8.725676518476826E-07</v>
+        <v>8.725675198844635E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999991274239</v>
+        <v>179.999999127424</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -6016,22 +6016,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015297</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679622</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q21">
-        <v>9.162329129261277E-07</v>
+        <v>9.162327628171489E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
   </sheetData>
@@ -6129,19 +6129,19 @@
         <v>230.9401157709824</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -6156,7 +6156,7 @@
         <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.72006618412423E-10</v>
+        <v>1.72008026738463E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6206,16 +6206,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640276</v>
+        <v>0.8660253881640282</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054653</v>
+        <v>0.8660254194054658</v>
       </c>
       <c r="Q3">
-        <v>8.659289731889575E-08</v>
+        <v>8.65929750879765E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6265,22 +6265,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015297</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679623</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q4">
-        <v>9.162329138186051E-07</v>
+        <v>9.162327728425871E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -6324,22 +6324,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515274</v>
+        <v>0.8660253778515297</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179623</v>
+        <v>0.8660254297179634</v>
       </c>
       <c r="Q5">
-        <v>7.415717711933622E-07</v>
+        <v>7.415718245273003E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -6383,16 +6383,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660253737265275</v>
+        <v>0.8660253737265303</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025433842961</v>
+        <v>0.8660254338429622</v>
       </c>
       <c r="Q6">
-        <v>1.003563321509257E-06</v>
+        <v>1.003563372008883E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6442,22 +6442,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8660253702890275</v>
+        <v>0.8660253702890311</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804603</v>
+        <v>0.8660254372804611</v>
       </c>
       <c r="Q7">
-        <v>1.221889617405763E-06</v>
+        <v>1.221889659076359E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>179.9999987781019</v>
+        <v>179.999998778102</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -6501,22 +6501,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8660253696015278</v>
+        <v>0.8660253696015313</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679599</v>
+        <v>0.8660254379679609</v>
       </c>
       <c r="Q8">
-        <v>1.265554879038831E-06</v>
+        <v>1.265554902563667E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>179.9999987344366</v>
+        <v>179.9999987344367</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6560,16 +6560,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265278</v>
+        <v>0.8660253682265315</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429596</v>
+        <v>0.8660254393429606</v>
       </c>
       <c r="Q9">
-        <v>1.352885386793437E-06</v>
+        <v>1.352885432299792E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6619,16 +6619,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.866025366851528</v>
+        <v>0.8660253668515318</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179592</v>
+        <v>0.8660254407179605</v>
       </c>
       <c r="Q10">
-        <v>1.440215894512868E-06</v>
+        <v>1.440215951782804E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6678,22 +6678,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.866025366164028</v>
+        <v>0.8660253661640319</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.866025441405459</v>
+        <v>0.8660254414054603</v>
       </c>
       <c r="Q11">
-        <v>1.483881151265815E-06</v>
+        <v>1.483881204011456E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999985161104</v>
+        <v>179.9999985161105</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6737,22 +6737,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015278</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679648</v>
+        <v>0.8660254214679656</v>
       </c>
       <c r="Q12">
-        <v>2.175886556586669E-07</v>
+        <v>2.17588746672302E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6796,22 +6796,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8660253861015278</v>
+        <v>0.8660253861015285</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679648</v>
+        <v>0.8660254214679656</v>
       </c>
       <c r="Q13">
-        <v>2.175886556586669E-07</v>
+        <v>2.17588746672302E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6855,22 +6855,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390278</v>
+        <v>0.8660253840390285</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304641</v>
+        <v>0.866025423530465</v>
       </c>
       <c r="Q14">
-        <v>3.485844844712047E-07</v>
+        <v>3.485844859174236E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6914,16 +6914,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8660253826640275</v>
+        <v>0.8660253826640287</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054636</v>
+        <v>0.8660254249054645</v>
       </c>
       <c r="Q15">
-        <v>4.35914961533426E-07</v>
+        <v>4.359150277146149E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6973,16 +6973,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8660253867890277</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.866025420780465</v>
+        <v>0.8660254207804657</v>
       </c>
       <c r="Q16">
-        <v>1.739233966754888E-07</v>
+        <v>1.73923492213419E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7032,16 +7032,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890277</v>
+        <v>0.8660253867890283</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.866025420780465</v>
+        <v>0.8660254207804657</v>
       </c>
       <c r="Q17">
-        <v>1.739233966754888E-07</v>
+        <v>1.73923492213419E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7091,22 +7091,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015282</v>
+        <v>0.8660253806015288</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679633</v>
+        <v>0.8660254269679643</v>
       </c>
       <c r="Q18">
-        <v>5.669108040132811E-07</v>
+        <v>5.669107533133141E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>179.9999994330806</v>
+        <v>179.9999994330807</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -7150,22 +7150,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515287</v>
+        <v>0.8660253778515293</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8660254297179628</v>
+        <v>0.8660254297179636</v>
       </c>
       <c r="Q19">
-        <v>7.415718596091567E-07</v>
+        <v>7.415717650998014E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999992584196</v>
+        <v>179.9999992584197</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -7209,22 +7209,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8660253757890287</v>
+        <v>0.8660253757890295</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804622</v>
+        <v>0.8660254317804628</v>
       </c>
       <c r="Q20">
-        <v>8.725676518476826E-07</v>
+        <v>8.725675198844635E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>179.9999991274239</v>
+        <v>179.999999127424</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -7268,22 +7268,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015289</v>
+        <v>0.8660253751015297</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679622</v>
+        <v>0.8660254324679628</v>
       </c>
       <c r="Q21">
-        <v>9.162329129261277E-07</v>
+        <v>9.162327628171489E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.9999990837586</v>
+        <v>179.9999990837587</v>
       </c>
     </row>
   </sheetData>
@@ -7381,19 +7381,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -7526,7 +7526,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R4">
         <v>-91.24839358661669</v>
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00255106503835</v>
+        <v>1.002551065038351</v>
       </c>
       <c r="O6">
         <v>0.9731342572792639</v>
@@ -7644,10 +7644,10 @@
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.0264825383982</v>
+        <v>29.02648253839819</v>
       </c>
       <c r="R6">
-        <v>-91.24839357891872</v>
+        <v>-91.24839357891874</v>
       </c>
       <c r="S6">
         <v>150.3745453024929</v>
@@ -7700,10 +7700,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879739</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.02648254374771</v>
+        <v>29.0264825437477</v>
       </c>
       <c r="R7">
         <v>-91.2483935596738</v>
@@ -7759,7 +7759,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179665</v>
+        <v>0.9840663106179663</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -7815,7 +7815,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779517</v>
@@ -7877,13 +7877,13 @@
         <v>0.9731342573311894</v>
       </c>
       <c r="P10">
-        <v>0.984066310737937</v>
+        <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
         <v>29.02648254909722</v>
       </c>
       <c r="R10">
-        <v>-91.24839354042888</v>
+        <v>-91.24839354042889</v>
       </c>
       <c r="S10">
         <v>150.3745453102078</v>
@@ -7933,16 +7933,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679297</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.2483935365799</v>
+        <v>-91.24839353657991</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -8110,13 +8110,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013759</v>
+        <v>0.9731342572013758</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881208</v>
+        <v>0.9840663099881211</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234965</v>
+        <v>29.02648252234964</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -8178,7 +8178,7 @@
         <v>29.02648252448946</v>
       </c>
       <c r="R15">
-        <v>-91.24839362895551</v>
+        <v>-91.24839362895553</v>
       </c>
       <c r="S15">
         <v>150.3745452924634</v>
@@ -8234,13 +8234,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R16">
         <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -8293,13 +8293,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R17">
         <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -8349,13 +8349,13 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
-        <v>29.02648252769917</v>
+        <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740855</v>
+        <v>-91.24839361740857</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -8411,10 +8411,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197878</v>
+        <v>29.02648253197877</v>
       </c>
       <c r="R19">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S19">
         <v>150.3745452978639</v>
@@ -8464,16 +8464,16 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636864</v>
+        <v>0.9731342572636862</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518849</v>
+        <v>29.02648253518848</v>
       </c>
       <c r="R20">
-        <v>-91.24839359046567</v>
+        <v>-91.24839359046568</v>
       </c>
       <c r="S20">
         <v>150.3745453001784</v>
@@ -8529,7 +8529,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R21">
         <v>-91.24839358661669</v>
@@ -8633,19 +8633,19 @@
         <v>7.945607942610519</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -8778,7 +8778,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q4">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R4">
         <v>-91.24839358661669</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00255106503835</v>
+        <v>1.002551065038351</v>
       </c>
       <c r="O6">
         <v>0.9731342572792639</v>
@@ -8896,10 +8896,10 @@
         <v>0.9840663104380105</v>
       </c>
       <c r="Q6">
-        <v>29.0264825383982</v>
+        <v>29.02648253839819</v>
       </c>
       <c r="R6">
-        <v>-91.24839357891872</v>
+        <v>-91.24839357891874</v>
       </c>
       <c r="S6">
         <v>150.3745453024929</v>
@@ -8952,10 +8952,10 @@
         <v>0.9731342573052266</v>
       </c>
       <c r="P7">
-        <v>0.9840663105879739</v>
+        <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.02648254374771</v>
+        <v>29.0264825437477</v>
       </c>
       <c r="R7">
         <v>-91.2483935596738</v>
@@ -9011,7 +9011,7 @@
         <v>0.9731342573104191</v>
       </c>
       <c r="P8">
-        <v>0.9840663106179665</v>
+        <v>0.9840663106179663</v>
       </c>
       <c r="Q8">
         <v>29.02648254481761</v>
@@ -9067,7 +9067,7 @@
         <v>1.002551064822994</v>
       </c>
       <c r="O9">
-        <v>0.9731342573208043</v>
+        <v>0.9731342573208044</v>
       </c>
       <c r="P9">
         <v>0.9840663106779517</v>
@@ -9129,13 +9129,13 @@
         <v>0.9731342573311894</v>
       </c>
       <c r="P10">
-        <v>0.984066310737937</v>
+        <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
         <v>29.02648254909722</v>
       </c>
       <c r="R10">
-        <v>-91.24839354042888</v>
+        <v>-91.24839354042889</v>
       </c>
       <c r="S10">
         <v>150.3745453102078</v>
@@ -9185,16 +9185,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363818</v>
+        <v>0.9731342573363819</v>
       </c>
       <c r="P11">
-        <v>0.9840663107679297</v>
+        <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
         <v>29.02648255016713</v>
       </c>
       <c r="R11">
-        <v>-91.2483935365799</v>
+        <v>-91.24839353657991</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -9362,13 +9362,13 @@
         <v>1.002551065442144</v>
       </c>
       <c r="O14">
-        <v>0.9731342572013759</v>
+        <v>0.9731342572013758</v>
       </c>
       <c r="P14">
-        <v>0.9840663099881208</v>
+        <v>0.9840663099881211</v>
       </c>
       <c r="Q14">
-        <v>29.02648252234965</v>
+        <v>29.02648252234964</v>
       </c>
       <c r="R14">
         <v>-91.24839363665349</v>
@@ -9430,7 +9430,7 @@
         <v>29.02648252448946</v>
       </c>
       <c r="R15">
-        <v>-91.24839362895551</v>
+        <v>-91.24839362895553</v>
       </c>
       <c r="S15">
         <v>150.3745452924634</v>
@@ -9486,13 +9486,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q16">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R16">
         <v>-91.24839365204942</v>
       </c>
       <c r="S16">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -9545,13 +9545,13 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807004</v>
+        <v>29.02648251807003</v>
       </c>
       <c r="R17">
         <v>-91.24839365204942</v>
       </c>
       <c r="S17">
-        <v>150.3745452878344</v>
+        <v>150.3745452878345</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -9601,13 +9601,13 @@
         <v>0.9731342572273386</v>
       </c>
       <c r="P18">
-        <v>0.9840663101380841</v>
+        <v>0.9840663101380842</v>
       </c>
       <c r="Q18">
-        <v>29.02648252769917</v>
+        <v>29.02648252769916</v>
       </c>
       <c r="R18">
-        <v>-91.24839361740855</v>
+        <v>-91.24839361740857</v>
       </c>
       <c r="S18">
         <v>150.3745452947779</v>
@@ -9663,10 +9663,10 @@
         <v>0.9840663102580548</v>
       </c>
       <c r="Q19">
-        <v>29.02648253197878</v>
+        <v>29.02648253197877</v>
       </c>
       <c r="R19">
-        <v>-91.24839360201263</v>
+        <v>-91.24839360201264</v>
       </c>
       <c r="S19">
         <v>150.3745452978639</v>
@@ -9716,16 +9716,16 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636864</v>
+        <v>0.9731342572636862</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
       </c>
       <c r="Q20">
-        <v>29.02648253518849</v>
+        <v>29.02648253518848</v>
       </c>
       <c r="R20">
-        <v>-91.24839359046567</v>
+        <v>-91.24839359046568</v>
       </c>
       <c r="S20">
         <v>150.3745453001784</v>
@@ -9781,7 +9781,7 @@
         <v>0.9840663103780253</v>
       </c>
       <c r="Q21">
-        <v>29.02648253625839</v>
+        <v>29.02648253625838</v>
       </c>
       <c r="R21">
         <v>-91.24839358661669</v>
@@ -9888,22 +9888,22 @@
         <v>0.01094540887219866</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868893</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646503</v>
+        <v>0.01094540889646505</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664726</v>
+        <v>0.6350853099664725</v>
       </c>
       <c r="O2">
         <v>1.100000023884844</v>
@@ -9912,10 +9912,10 @@
         <v>0.6350853098585751</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061765</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
         <v>120.0000000049951</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112935</v>
+        <v>0.6350853273112936</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114488</v>
+        <v>0.6350852941114492</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762076</v>
+        <v>60.00000073762071</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999575</v>
       </c>
       <c r="S3">
-        <v>120.0000009916558</v>
+        <v>120.0000009916559</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10021,22 +10021,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279437</v>
+        <v>0.6350853458279444</v>
       </c>
       <c r="O4">
         <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906004</v>
+        <v>0.6350852838906015</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789085</v>
+        <v>60.00000083789079</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S4">
-        <v>120.0000023882379</v>
+        <v>120.0000023882381</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10080,19 +10080,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419297007</v>
+        <v>0.635085341929701</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852860423586</v>
+        <v>0.6350852860423593</v>
       </c>
       <c r="Q5">
-        <v>60.00000081678141</v>
+        <v>60.00000081678136</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
         <v>120.0000020942206</v>
@@ -10139,22 +10139,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770636</v>
+        <v>0.6350853477770638</v>
       </c>
       <c r="O6">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147224</v>
+        <v>0.6350852828147231</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844569</v>
+        <v>60.00000084844565</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
       </c>
       <c r="S6">
-        <v>120.0000025352465</v>
+        <v>120.0000025352466</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -10198,19 +10198,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853526498662</v>
+        <v>0.6350853526498664</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250256</v>
+        <v>0.6350852801250262</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483257</v>
+        <v>60.00000087483254</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S7">
         <v>120.0000029027681</v>
@@ -10257,22 +10257,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244268</v>
+        <v>0.6350853536244269</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870863</v>
+        <v>0.6350852795870867</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010994</v>
+        <v>60.00000088010992</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S8">
-        <v>120.0000029762724</v>
+        <v>120.0000029762725</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -10316,22 +10316,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735476</v>
+        <v>0.6350853555735477</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112076</v>
+        <v>0.6350852785112082</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066474</v>
+        <v>60.00000089066469</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S9">
-        <v>120.000003123281</v>
+        <v>120.0000031232811</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -10375,19 +10375,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226683</v>
+        <v>0.6350853575226686</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353287</v>
+        <v>0.6350852774353294</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121952</v>
+        <v>60.00000090121947</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S10">
         <v>120.0000032702897</v>
@@ -10434,19 +10434,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972288</v>
+        <v>0.635085358497229</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973891</v>
+        <v>0.6350852768973898</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649693</v>
+        <v>60.00000090649687</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S11">
         <v>120.000003343794</v>
@@ -10493,22 +10493,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349747</v>
+        <v>0.6350853302349748</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976299</v>
+        <v>0.6350852924976305</v>
       </c>
       <c r="Q12">
-        <v>60.00000075345297</v>
+        <v>60.00000075345294</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S12">
-        <v>120.0000012121687</v>
+        <v>120.0000012121688</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -10552,22 +10552,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349747</v>
+        <v>0.6350853302349748</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976299</v>
+        <v>0.6350852924976305</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345297</v>
+        <v>60.00000075345294</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S13">
-        <v>120.0000012121687</v>
+        <v>120.0000012121688</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -10611,19 +10611,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586567</v>
+        <v>0.6350853331586571</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838127</v>
+        <v>0.6350852908838132</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928497</v>
+        <v>60.00000076928494</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S14">
         <v>120.0000014326818</v>
@@ -10670,22 +10670,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853351077774</v>
+        <v>0.6350853351077776</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852898079339</v>
+        <v>0.6350852898079345</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983977</v>
+        <v>60.00000077983972</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S15">
-        <v>120.0000015796903</v>
+        <v>120.0000015796904</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -10729,22 +10729,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604143</v>
+        <v>0.6350853292604145</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852930355696</v>
+        <v>0.6350852930355703</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817556</v>
+        <v>60.00000074817552</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S16">
-        <v>120.0000011386644</v>
+        <v>120.0000011386645</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -10788,22 +10788,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604143</v>
+        <v>0.6350853292604145</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355696</v>
+        <v>0.6350852930355703</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817556</v>
+        <v>60.00000074817552</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S17">
-        <v>120.0000011386644</v>
+        <v>120.0000011386645</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -10847,22 +10847,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314594</v>
+        <v>0.6350853380314599</v>
       </c>
       <c r="O18">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.635085288194116</v>
+        <v>0.6350852881941167</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567182</v>
+        <v>60.00000079567177</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S18">
-        <v>120.0000018002034</v>
+        <v>120.0000018002035</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -10906,22 +10906,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297015</v>
+        <v>0.6350853419297021</v>
       </c>
       <c r="O19">
-        <v>1.100000023884844</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852860423585</v>
+        <v>0.6350852860423593</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678132</v>
+        <v>60.00000081678127</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S19">
-        <v>120.0000020942207</v>
+        <v>120.0000020942208</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -10965,22 +10965,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533833</v>
+        <v>0.635085344853384</v>
       </c>
       <c r="O20">
         <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285402</v>
+        <v>0.6350852844285411</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261344</v>
+        <v>60.0000008326134</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S20">
-        <v>120.0000023147336</v>
+        <v>120.0000023147337</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -11024,22 +11024,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279437</v>
+        <v>0.6350853458279444</v>
       </c>
       <c r="O21">
         <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906007</v>
+        <v>0.6350852838906015</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789082</v>
+        <v>60.00000083789077</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S21">
-        <v>120.000002388238</v>
+        <v>120.0000023882381</v>
       </c>
     </row>
   </sheetData>
@@ -11119,7 +11119,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391567</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11137,13 +11137,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219867</v>
+        <v>0.01094540887219869</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868892</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
@@ -11155,19 +11155,19 @@
         <v>0.1094540870674483</v>
       </c>
       <c r="N2">
-        <v>0.6350853099664726</v>
+        <v>0.6350853099664719</v>
       </c>
       <c r="O2">
-        <v>1.100000023884844</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585751</v>
+        <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061765</v>
+        <v>60.0000000006177</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
         <v>120.0000000049951</v>
@@ -11214,13 +11214,13 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372381</v>
+        <v>0.6350853281372376</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615855</v>
+        <v>0.6350852933615856</v>
       </c>
       <c r="Q3">
         <v>60.00000077271607</v>
@@ -11273,22 +11273,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538883</v>
+        <v>0.6350853466538873</v>
       </c>
       <c r="O4">
         <v>1.100000023884845</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407378</v>
+        <v>0.6350852831407382</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298612</v>
+        <v>60.00000087298611</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>120.0000024352218</v>
+        <v>120.0000024352217</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -11332,22 +11332,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556453</v>
+        <v>0.6350853427556449</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.6350852852924954</v>
+        <v>0.6350852852924956</v>
       </c>
       <c r="Q5">
         <v>60.00000085187672</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S5">
-        <v>120.0000021412045</v>
+        <v>120.0000021412044</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -11391,22 +11391,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030084</v>
+        <v>0.6350853486030079</v>
       </c>
       <c r="O6">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P6">
         <v>0.6350852820648594</v>
       </c>
       <c r="Q6">
-        <v>60.000000883541</v>
+        <v>60.00000088354098</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S6">
-        <v>120.0000025822304</v>
+        <v>120.0000025822303</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.635085353475811</v>
+        <v>0.6350853534758104</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
@@ -11459,13 +11459,13 @@
         <v>0.6350852793751627</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992787</v>
+        <v>60.00000090992788</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S7">
-        <v>120.000002949752</v>
+        <v>120.0000029497519</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -11509,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853544503714</v>
+        <v>0.6350853544503708</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
@@ -11518,10 +11518,10 @@
         <v>0.6350852788372232</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520525</v>
+        <v>60.00000091520526</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S8">
         <v>120.0000030232563</v>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994923</v>
+        <v>0.6350853563994917</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
@@ -11577,10 +11577,10 @@
         <v>0.6350852777613447</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576003</v>
+        <v>60.00000092576002</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S9">
         <v>120.0000031702649</v>
@@ -11627,22 +11627,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853583486131</v>
+        <v>0.6350853583486125</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854658</v>
+        <v>0.6350852766854659</v>
       </c>
       <c r="Q10">
         <v>60.00000093631482</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S10">
-        <v>120.0000033172736</v>
+        <v>120.0000033172735</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11686,22 +11686,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231734</v>
+        <v>0.6350853593231731</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475262</v>
+        <v>0.6350852761475263</v>
       </c>
       <c r="Q11">
-        <v>60.00000094159223</v>
+        <v>60.00000094159221</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S11">
-        <v>120.0000033907779</v>
+        <v>120.0000033907778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -11745,13 +11745,13 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853310609194</v>
+        <v>0.6350853310609188</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852917477667</v>
+        <v>0.6350852917477668</v>
       </c>
       <c r="Q12">
         <v>60.00000078854828</v>
@@ -11804,13 +11804,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853310609194</v>
+        <v>0.6350853310609188</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477667</v>
+        <v>0.6350852917477668</v>
       </c>
       <c r="Q13">
         <v>60.00000078854828</v>
@@ -11863,19 +11863,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846012</v>
+        <v>0.6350853339846005</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339497</v>
+        <v>0.6350852901339498</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438029</v>
+        <v>60.00000080438027</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S14">
         <v>120.0000014796656</v>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337221</v>
+        <v>0.6350853359337216</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
@@ -11931,10 +11931,10 @@
         <v>0.6350852890580708</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493508</v>
+        <v>60.00000081493507</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999577</v>
       </c>
       <c r="S15">
         <v>120.0000016266742</v>
@@ -11981,19 +11981,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863589</v>
+        <v>0.6350853300863584</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
       </c>
       <c r="P16">
-        <v>0.6350852922857064</v>
+        <v>0.6350852922857065</v>
       </c>
       <c r="Q16">
         <v>60.00000078327087</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S16">
         <v>120.0000011856483</v>
@@ -12040,19 +12040,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863589</v>
+        <v>0.6350853300863584</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857064</v>
+        <v>0.6350852922857065</v>
       </c>
       <c r="Q17">
         <v>60.00000078327087</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S17">
         <v>120.0000011856483</v>
@@ -12099,19 +12099,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574038</v>
+        <v>0.6350853388574031</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442529</v>
+        <v>0.6350852874442533</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076714</v>
+        <v>60.00000083076711</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S18">
         <v>120.0000018471872</v>
@@ -12158,19 +12158,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.635085342755646</v>
+        <v>0.6350853427556452</v>
       </c>
       <c r="O19">
         <v>1.100000023884845</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924956</v>
+        <v>0.635085285292496</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187661</v>
+        <v>60.00000085187658</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S19">
         <v>120.0000021412045</v>
@@ -12217,22 +12217,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793276</v>
+        <v>0.6350853456793268</v>
       </c>
       <c r="O20">
         <v>1.100000023884845</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786773</v>
+        <v>0.6350852836786779</v>
       </c>
       <c r="Q20">
         <v>60.00000086770871</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S20">
-        <v>120.0000023617175</v>
+        <v>120.0000023617174</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -12276,22 +12276,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538882</v>
+        <v>0.6350853466538873</v>
       </c>
       <c r="O21">
         <v>1.100000023884845</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407381</v>
+        <v>0.6350852831407383</v>
       </c>
       <c r="Q21">
-        <v>60.0000008729861</v>
+        <v>60.00000087298609</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S21">
-        <v>120.0000024352218</v>
+        <v>120.0000024352217</v>
       </c>
     </row>
   </sheetData>
@@ -12392,19 +12392,19 @@
         <v>0.01094540887219866</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723506</v>
+        <v>0.1094540870723507</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868893</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
         <v>0.1094540870674546</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646503</v>
+        <v>0.01094540889646505</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>1.090352556933547</v>
@@ -12472,13 +12472,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P3">
-        <v>1.096496877836071</v>
+        <v>1.09649687783607</v>
       </c>
       <c r="Q3">
-        <v>29.92212961550542</v>
+        <v>29.92212961550543</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S3">
         <v>149.5246566712658</v>
@@ -12537,7 +12537,7 @@
         <v>29.9221296297744</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566822253</v>
@@ -12652,7 +12652,7 @@
         <v>1.096496877622592</v>
       </c>
       <c r="Q6">
-        <v>29.92212963127639</v>
+        <v>29.9221296312764</v>
       </c>
       <c r="R6">
         <v>-89.99999999999635</v>
@@ -12829,7 +12829,7 @@
         <v>1.096496877541267</v>
       </c>
       <c r="Q9">
-        <v>29.92212963728439</v>
+        <v>29.92212963728438</v>
       </c>
       <c r="R9">
         <v>-89.99999999999635</v>
@@ -13003,7 +13003,7 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P12">
-        <v>1.096496877805573</v>
+        <v>1.096496877805574</v>
       </c>
       <c r="Q12">
         <v>29.92212961775842</v>
@@ -13062,7 +13062,7 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877805573</v>
+        <v>1.096496877805574</v>
       </c>
       <c r="Q13">
         <v>29.92212961775842</v>
@@ -13124,10 +13124,10 @@
         <v>1.096496877775077</v>
       </c>
       <c r="Q14">
-        <v>29.92212962001141</v>
+        <v>29.92212962001142</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566747267</v>
@@ -13183,7 +13183,7 @@
         <v>1.096496877754745</v>
       </c>
       <c r="Q15">
-        <v>29.92212962151341</v>
+        <v>29.92212962151342</v>
       </c>
       <c r="R15">
         <v>-89.99999999999635</v>
@@ -13360,7 +13360,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376642</v>
+        <v>29.92212962376641</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -13422,7 +13422,7 @@
         <v>29.9221296267704</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S19">
         <v>149.524656679918</v>
@@ -13481,7 +13481,7 @@
         <v>29.9221296290234</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.5246566816485</v>
@@ -13537,10 +13537,10 @@
         <v>1.096496877642924</v>
       </c>
       <c r="Q21">
-        <v>29.92212962977439</v>
+        <v>29.9221296297744</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566822253</v>
@@ -14137,13 +14137,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219867</v>
+        <v>0.01094540887219869</v>
       </c>
       <c r="I2">
         <v>0.1094540870723506</v>
       </c>
       <c r="J2">
-        <v>0.01094540888868892</v>
+        <v>0.01094540888868895</v>
       </c>
       <c r="K2">
         <v>0.1094540870674545</v>
@@ -14518,7 +14518,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651797</v>
+        <v>29.92212963651796</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.090352557053719</v>
+        <v>1.090352557053718</v>
       </c>
       <c r="O10">
         <v>1.100000023842583</v>
@@ -14993,7 +14993,7 @@
         <v>29.922129617743</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S16">
         <v>149.5246566727359</v>
@@ -15052,7 +15052,7 @@
         <v>29.922129617743</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S17">
         <v>149.5246566727359</v>
@@ -15371,7 +15371,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383258</v>
+        <v>46.18802315383259</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15389,34 +15389,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778151</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526079</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110771</v>
+        <v>0.5773502692110766</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5773502691690924</v>
+        <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075386</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15466,16 +15466,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857111</v>
+        <v>0.5773502855857102</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962964</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027879</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610998</v>
+        <v>60.00000076610988</v>
       </c>
       <c r="R3">
         <v>-89.99999999999585</v>
@@ -15525,19 +15525,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888184</v>
+        <v>0.5773503058881826</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P4">
-        <v>0.577350248480263</v>
+        <v>0.5773502484802634</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007619</v>
+        <v>60.00000027007616</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S4">
         <v>120.0000030191491</v>
@@ -15584,22 +15584,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139796</v>
+        <v>0.577350301613977</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060565</v>
+        <v>0.5773502497060589</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450447</v>
+        <v>60.00000037450426</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S5">
-        <v>120.0000025995942</v>
+        <v>120.0000025995941</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -15643,22 +15643,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252869</v>
+        <v>0.5773503080252838</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673643</v>
+        <v>0.5773502478673671</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786227</v>
+        <v>60.00000021786201</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S6">
-        <v>120.0000032289266</v>
+        <v>120.0000032289265</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -15702,22 +15702,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680431</v>
+        <v>0.5773503133680394</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351211</v>
+        <v>0.5773502463351241</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732708</v>
+        <v>60.00000008732682</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S7">
-        <v>120.0000037533703</v>
+        <v>120.0000037533702</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -15761,22 +15761,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365942</v>
+        <v>0.5773503144365906</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286726</v>
+        <v>0.5773502460286756</v>
       </c>
       <c r="Q8">
-        <v>60.00000006122002</v>
+        <v>60.00000006121977</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S8">
-        <v>120.0000038582591</v>
+        <v>120.0000038582589</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -15820,22 +15820,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736968</v>
+        <v>0.5773503165736928</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157752</v>
+        <v>0.5773502454157783</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900596</v>
+        <v>60.00000000900568</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S9">
-        <v>120.0000040680365</v>
+        <v>120.0000040680363</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -15879,22 +15879,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107991</v>
+        <v>0.5773503187107949</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028781</v>
+        <v>0.5773502448028811</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679187</v>
+        <v>59.99999995679161</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S10">
-        <v>120.000004277814</v>
+        <v>120.0000042778138</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -15938,22 +15938,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793501</v>
+        <v>0.5773503197793463</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964296</v>
+        <v>0.5773502444964326</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068483</v>
+        <v>59.99999993068456</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S11">
-        <v>120.0000043827028</v>
+        <v>120.0000043827025</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -15997,19 +15997,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913646</v>
+        <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834419</v>
+        <v>0.5773502533834425</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778885</v>
+        <v>60.00000068778875</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
         <v>120.0000013409294</v>
@@ -16056,19 +16056,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913646</v>
+        <v>0.5773502887913637</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834419</v>
+        <v>0.5773502533834425</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778885</v>
+        <v>60.00000068778875</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -16115,19 +16115,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970184</v>
+        <v>0.5773502919970173</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640955</v>
+        <v>0.5773502524640962</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946771</v>
+        <v>60.00000060946764</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S14">
         <v>120.0000016555956</v>
@@ -16174,22 +16174,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341209</v>
+        <v>0.5773502941341192</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511977</v>
+        <v>0.5773502518511993</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725371</v>
+        <v>60.00000055725355</v>
       </c>
       <c r="R15">
         <v>-89.99999999999586</v>
       </c>
       <c r="S15">
-        <v>120.0000018653731</v>
+        <v>120.000001865373</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -16233,19 +16233,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228136</v>
+        <v>0.5773502877228125</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962963</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898905</v>
+        <v>0.5773502536898911</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389589</v>
+        <v>60.00000071389579</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -16292,19 +16292,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228136</v>
+        <v>0.5773502877228125</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962963</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898905</v>
+        <v>0.5773502536898911</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389589</v>
+        <v>60.00000071389579</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -16351,19 +16351,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397744</v>
+        <v>0.5773502973397731</v>
       </c>
       <c r="O18">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P18">
-        <v>0.577350250931852</v>
+        <v>0.5773502509318528</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.00000047893246</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S18">
         <v>120.0000021800393</v>
@@ -16410,19 +16410,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139792</v>
+        <v>0.5773503016139779</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060574</v>
+        <v>0.577350249706058</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450437</v>
+        <v>60.00000037450432</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S19">
         <v>120.0000025995942</v>
@@ -16469,19 +16469,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196329</v>
+        <v>0.5773503048196316</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867116</v>
+        <v>0.5773502487867118</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618323</v>
+        <v>60.0000002961832</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S20">
         <v>120.0000029142604</v>
@@ -16528,19 +16528,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.577350305888184</v>
+        <v>0.5773503058881827</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802632</v>
+        <v>0.5773502484802633</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007617</v>
+        <v>60.00000027007616</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S21">
         <v>120.0000030191491</v>
@@ -16623,7 +16623,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383258</v>
+        <v>46.18802315383259</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16641,34 +16641,34 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778151</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526079</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110771</v>
+        <v>0.5773502692110766</v>
       </c>
       <c r="O2">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5773502691690924</v>
+        <v>0.5773502691690919</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075386</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -16718,16 +16718,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502855857111</v>
+        <v>0.5773502855857102</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962964</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027879</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610998</v>
+        <v>60.00000076610988</v>
       </c>
       <c r="R3">
         <v>-89.99999999999585</v>
@@ -16777,19 +16777,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350305888184</v>
+        <v>0.5773503058881826</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P4">
-        <v>0.577350248480263</v>
+        <v>0.5773502484802634</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007619</v>
+        <v>60.00000027007616</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S4">
         <v>120.0000030191491</v>
@@ -16836,22 +16836,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139796</v>
+        <v>0.577350301613977</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060565</v>
+        <v>0.5773502497060589</v>
       </c>
       <c r="Q5">
-        <v>60.00000037450447</v>
+        <v>60.00000037450426</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S5">
-        <v>120.0000025995942</v>
+        <v>120.0000025995941</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -16895,22 +16895,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252869</v>
+        <v>0.5773503080252838</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P6">
-        <v>0.5773502478673643</v>
+        <v>0.5773502478673671</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786227</v>
+        <v>60.00000021786201</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S6">
-        <v>120.0000032289266</v>
+        <v>120.0000032289265</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -16954,22 +16954,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680431</v>
+        <v>0.5773503133680394</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351211</v>
+        <v>0.5773502463351241</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732708</v>
+        <v>60.00000008732682</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S7">
-        <v>120.0000037533703</v>
+        <v>120.0000037533702</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -17013,22 +17013,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773503144365942</v>
+        <v>0.5773503144365906</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286726</v>
+        <v>0.5773502460286756</v>
       </c>
       <c r="Q8">
-        <v>60.00000006122002</v>
+        <v>60.00000006121977</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S8">
-        <v>120.0000038582591</v>
+        <v>120.0000038582589</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -17072,22 +17072,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736968</v>
+        <v>0.5773503165736928</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P9">
-        <v>0.5773502454157752</v>
+        <v>0.5773502454157783</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900596</v>
+        <v>60.00000000900568</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S9">
-        <v>120.0000040680365</v>
+        <v>120.0000040680363</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -17131,22 +17131,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107991</v>
+        <v>0.5773503187107949</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028781</v>
+        <v>0.5773502448028811</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679187</v>
+        <v>59.99999995679161</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S10">
-        <v>120.000004277814</v>
+        <v>120.0000042778138</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -17190,22 +17190,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793501</v>
+        <v>0.5773503197793463</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962961</v>
+        <v>0.999999999996295</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964296</v>
+        <v>0.5773502444964326</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068483</v>
+        <v>59.99999993068456</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S11">
-        <v>120.0000043827028</v>
+        <v>120.0000043827025</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -17249,19 +17249,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502887913646</v>
+        <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834419</v>
+        <v>0.5773502533834425</v>
       </c>
       <c r="Q12">
-        <v>60.00000068778885</v>
+        <v>60.00000068778875</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
         <v>120.0000013409294</v>
@@ -17308,19 +17308,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913646</v>
+        <v>0.5773502887913637</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834419</v>
+        <v>0.5773502533834425</v>
       </c>
       <c r="Q13">
-        <v>60.00000068778885</v>
+        <v>60.00000068778875</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S13">
         <v>120.0000013409294</v>
@@ -17367,19 +17367,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970184</v>
+        <v>0.5773502919970173</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P14">
-        <v>0.5773502524640955</v>
+        <v>0.5773502524640962</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946771</v>
+        <v>60.00000060946764</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S14">
         <v>120.0000016555956</v>
@@ -17426,22 +17426,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502941341209</v>
+        <v>0.5773502941341192</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511977</v>
+        <v>0.5773502518511993</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725371</v>
+        <v>60.00000055725355</v>
       </c>
       <c r="R15">
         <v>-89.99999999999586</v>
       </c>
       <c r="S15">
-        <v>120.0000018653731</v>
+        <v>120.000001865373</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -17485,19 +17485,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228136</v>
+        <v>0.5773502877228125</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962963</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P16">
-        <v>0.5773502536898905</v>
+        <v>0.5773502536898911</v>
       </c>
       <c r="Q16">
-        <v>60.00000071389589</v>
+        <v>60.00000071389579</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S16">
         <v>120.0000012360407</v>
@@ -17544,19 +17544,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502877228136</v>
+        <v>0.5773502877228125</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962963</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P17">
-        <v>0.5773502536898905</v>
+        <v>0.5773502536898911</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389589</v>
+        <v>60.00000071389579</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S17">
         <v>120.0000012360407</v>
@@ -17603,19 +17603,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397744</v>
+        <v>0.5773502973397731</v>
       </c>
       <c r="O18">
-        <v>0.999999999996296</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P18">
-        <v>0.577350250931852</v>
+        <v>0.5773502509318528</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893252</v>
+        <v>60.00000047893246</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S18">
         <v>120.0000021800393</v>
@@ -17662,19 +17662,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139792</v>
+        <v>0.5773503016139779</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060574</v>
+        <v>0.577350249706058</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450437</v>
+        <v>60.00000037450432</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S19">
         <v>120.0000025995942</v>
@@ -17721,19 +17721,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196329</v>
+        <v>0.5773503048196316</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867116</v>
+        <v>0.5773502487867118</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618323</v>
+        <v>60.0000002961832</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S20">
         <v>120.0000029142604</v>
@@ -17780,19 +17780,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.577350305888184</v>
+        <v>0.5773503058881827</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802632</v>
+        <v>0.5773502484802633</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007617</v>
+        <v>60.00000027007616</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S21">
         <v>120.0000030191491</v>
@@ -17893,19 +17893,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778151</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526079</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -17976,7 +17976,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115341</v>
+        <v>0.9963798869115342</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -18035,7 +18035,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -18088,7 +18088,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -18100,7 +18100,7 @@
         <v>29.91230409069946</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
         <v>149.4607573160264</v>
@@ -18153,13 +18153,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
-        <v>29.91230409615194</v>
+        <v>29.91230409615193</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S6">
         <v>149.4607573220091</v>
@@ -18218,7 +18218,7 @@
         <v>29.91230410069565</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S7">
         <v>149.4607573269946</v>
@@ -18265,7 +18265,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480150279878</v>
+        <v>0.9900480150279877</v>
       </c>
       <c r="O8">
         <v>0.9999999999994829</v>
@@ -18274,13 +18274,13 @@
         <v>0.9963798866895777</v>
       </c>
       <c r="Q8">
-        <v>29.9123041016044</v>
+        <v>29.91230410160439</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S8">
-        <v>149.4607573279918</v>
+        <v>149.4607573279917</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -18324,7 +18324,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500488</v>
+        <v>0.9900480150500486</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -18333,10 +18333,10 @@
         <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
-        <v>29.91230410342189</v>
+        <v>29.91230410342188</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S9">
         <v>149.460757329986</v>
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9900480150721099</v>
+        <v>0.9900480150721097</v>
       </c>
       <c r="O10">
         <v>0.9999999999994829</v>
@@ -18392,10 +18392,10 @@
         <v>0.9963798866566953</v>
       </c>
       <c r="Q10">
-        <v>29.91230410523938</v>
+        <v>29.91230410523937</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S10">
         <v>149.4607573319802</v>
@@ -18448,13 +18448,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P11">
-        <v>0.9963798866484745</v>
+        <v>0.9963798866484747</v>
       </c>
       <c r="Q11">
-        <v>29.91230410614812</v>
+        <v>29.91230410614811</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S11">
         <v>149.4607573329773</v>
@@ -18678,10 +18678,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480148184078</v>
+        <v>0.9900480148184077</v>
       </c>
       <c r="O15">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P15">
         <v>0.9963798868457693</v>
@@ -18743,7 +18743,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -18802,7 +18802,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -18855,7 +18855,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9900480148514994</v>
+        <v>0.9900480148514993</v>
       </c>
       <c r="O18">
         <v>0.9999999999994829</v>
@@ -18864,7 +18864,7 @@
         <v>0.9963798868211076</v>
       </c>
       <c r="Q18">
-        <v>29.91230408706449</v>
+        <v>29.91230408706448</v>
       </c>
       <c r="R18">
         <v>-89.99999999999636</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -18923,7 +18923,7 @@
         <v>0.9963798867882251</v>
       </c>
       <c r="Q19">
-        <v>29.91230409069947</v>
+        <v>29.91230409069946</v>
       </c>
       <c r="R19">
         <v>-89.99999999999636</v>
@@ -18973,16 +18973,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.990048014928713</v>
+        <v>0.9900480149287129</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -19038,7 +19038,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -19145,19 +19145,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778151</v>
+        <v>0.01243796462778154</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
       </c>
       <c r="J2">
-        <v>0.0124379646752608</v>
+        <v>0.01243796467526079</v>
       </c>
       <c r="K2">
-        <v>0.1243796443940179</v>
+        <v>0.1243796443940178</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911724</v>
+        <v>0.01243796465911722</v>
       </c>
       <c r="M2">
         <v>0.1243796443940108</v>
@@ -19228,7 +19228,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P3">
-        <v>0.9963798869115341</v>
+        <v>0.9963798869115342</v>
       </c>
       <c r="Q3">
         <v>29.9123040770683</v>
@@ -19287,7 +19287,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P4">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q4">
         <v>29.91230409433444</v>
@@ -19340,7 +19340,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -19352,7 +19352,7 @@
         <v>29.91230409069946</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S5">
         <v>149.4607573160264</v>
@@ -19405,13 +19405,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
-        <v>29.91230409615194</v>
+        <v>29.91230409615193</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S6">
         <v>149.4607573220091</v>
@@ -19470,7 +19470,7 @@
         <v>29.91230410069565</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S7">
         <v>149.4607573269946</v>
@@ -19517,7 +19517,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9900480150279878</v>
+        <v>0.9900480150279877</v>
       </c>
       <c r="O8">
         <v>0.9999999999994829</v>
@@ -19526,13 +19526,13 @@
         <v>0.9963798866895777</v>
       </c>
       <c r="Q8">
-        <v>29.9123041016044</v>
+        <v>29.91230410160439</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S8">
-        <v>149.4607573279918</v>
+        <v>149.4607573279917</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9900480150500488</v>
+        <v>0.9900480150500486</v>
       </c>
       <c r="O9">
         <v>0.9999999999994829</v>
@@ -19585,10 +19585,10 @@
         <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
-        <v>29.91230410342189</v>
+        <v>29.91230410342188</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S9">
         <v>149.460757329986</v>
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9900480150721099</v>
+        <v>0.9900480150721097</v>
       </c>
       <c r="O10">
         <v>0.9999999999994829</v>
@@ -19644,10 +19644,10 @@
         <v>0.9963798866566953</v>
       </c>
       <c r="Q10">
-        <v>29.91230410523938</v>
+        <v>29.91230410523937</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S10">
         <v>149.4607573319802</v>
@@ -19700,13 +19700,13 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P11">
-        <v>0.9963798866484745</v>
+        <v>0.9963798866484747</v>
       </c>
       <c r="Q11">
-        <v>29.91230410614812</v>
+        <v>29.91230410614811</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S11">
         <v>149.4607573329773</v>
@@ -19930,10 +19930,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9900480148184078</v>
+        <v>0.9900480148184077</v>
       </c>
       <c r="O15">
-        <v>0.9999999999994829</v>
+        <v>0.9999999999994827</v>
       </c>
       <c r="P15">
         <v>0.9963798868457693</v>
@@ -19995,7 +19995,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -20054,7 +20054,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -20107,7 +20107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9900480148514994</v>
+        <v>0.9900480148514993</v>
       </c>
       <c r="O18">
         <v>0.9999999999994829</v>
@@ -20116,7 +20116,7 @@
         <v>0.9963798868211076</v>
       </c>
       <c r="Q18">
-        <v>29.91230408706449</v>
+        <v>29.91230408706448</v>
       </c>
       <c r="R18">
         <v>-89.99999999999636</v>
@@ -20166,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956214</v>
+        <v>0.9900480148956212</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20175,7 +20175,7 @@
         <v>0.9963798867882251</v>
       </c>
       <c r="Q19">
-        <v>29.91230409069947</v>
+        <v>29.91230409069946</v>
       </c>
       <c r="R19">
         <v>-89.99999999999636</v>
@@ -20225,16 +20225,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.990048014928713</v>
+        <v>0.9900480149287129</v>
       </c>
       <c r="O20">
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -20290,7 +20290,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P21">
-        <v>0.9963798867553425</v>
+        <v>0.9963798867553426</v>
       </c>
       <c r="Q21">
         <v>29.91230409433444</v>
@@ -20385,46 +20385,46 @@
         <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620927</v>
+        <v>57.73503019620926</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114189</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545259</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646417</v>
+        <v>0.01094540889646412</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.635085309844802</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608014</v>
       </c>
       <c r="Q2">
-        <v>4.22844729564833E-09</v>
+        <v>4.228448361447637E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20474,22 +20474,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852940976665</v>
+        <v>0.6350852940976675</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056276</v>
+        <v>0.6350853272056283</v>
       </c>
       <c r="Q3">
-        <v>9.908897592031273E-07</v>
+        <v>9.908897988476629E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999992578328</v>
+        <v>-179.9999992578329</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -20533,22 +20533,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.635085283876815</v>
+        <v>0.6350852838768165</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853457222776</v>
+        <v>0.6350853457222787</v>
       </c>
       <c r="Q4">
-        <v>2.38747182767051E-06</v>
+        <v>2.387471842593586E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991575627</v>
+        <v>-179.9999991575629</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -20592,22 +20592,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285726</v>
+        <v>0.6350852860285735</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240346</v>
+        <v>0.6350853418240353</v>
       </c>
       <c r="Q5">
-        <v>2.093454427166245E-06</v>
+        <v>2.093454470421704E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999991786722</v>
+        <v>-179.9999991786723</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -20651,22 +20651,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009351</v>
+        <v>0.635085282800936</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853476713976</v>
+        <v>0.6350853476713982</v>
       </c>
       <c r="Q6">
-        <v>2.534480310622589E-06</v>
+        <v>2.534480359661022E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.999999147008</v>
+        <v>-179.9999991470081</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -20710,22 +20710,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112372</v>
+        <v>0.6350852801112381</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853525441998</v>
+        <v>0.6350853525442006</v>
       </c>
       <c r="Q7">
-        <v>2.902001893863878E-06</v>
+        <v>2.902001937119605E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999991206211</v>
+        <v>-179.9999991206212</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -20769,22 +20769,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732977</v>
+        <v>0.6350852795732985</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853535187605</v>
+        <v>0.6350853535187611</v>
       </c>
       <c r="Q8">
-        <v>2.975506211201696E-06</v>
+        <v>2.97550624867461E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999991153438</v>
+        <v>-179.9999991153439</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -20828,22 +20828,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974184</v>
+        <v>0.6350852784974191</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853554678815</v>
+        <v>0.6350853554678823</v>
       </c>
       <c r="Q9">
-        <v>3.122514828739641E-06</v>
+        <v>3.122514877778262E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.999999104789</v>
+        <v>-179.9999991047891</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -20887,22 +20887,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215391</v>
+        <v>0.6350852774215399</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853574170024</v>
+        <v>0.635085357417003</v>
       </c>
       <c r="Q10">
-        <v>3.269523446114624E-06</v>
+        <v>3.269523495153285E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-179.9999990942343</v>
+        <v>-179.9999990942344</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -20946,22 +20946,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768835994</v>
+        <v>0.6350852768836003</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853583915628</v>
+        <v>0.6350853583915637</v>
       </c>
       <c r="Q11">
-        <v>3.343027763681699E-06</v>
+        <v>3.343027818503198E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>-179.9999990889569</v>
+        <v>-179.999999088957</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -21005,22 +21005,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838473</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293091</v>
+        <v>0.6350853301293099</v>
       </c>
       <c r="Q12">
-        <v>1.211402684174474E-06</v>
+        <v>1.211402719897191E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-179.9999992420006</v>
+        <v>-179.9999992420007</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -21064,22 +21064,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838473</v>
+        <v>0.635085292483848</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293091</v>
+        <v>0.6350853301293099</v>
       </c>
       <c r="Q13">
-        <v>1.211402684174474E-06</v>
+        <v>1.211402719897191E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-179.9999992420006</v>
+        <v>-179.9999992420007</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -21123,22 +21123,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.635085290870029</v>
+        <v>0.6350852908700302</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.635085333052991</v>
+        <v>0.6350853330529916</v>
       </c>
       <c r="Q14">
-        <v>1.431915642160479E-06</v>
+        <v>1.431915701448659E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999992261685</v>
+        <v>-179.9999992261687</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -21182,22 +21182,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941498</v>
+        <v>0.6350852897941507</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021116</v>
+        <v>0.6350853350021122</v>
       </c>
       <c r="Q15">
-        <v>1.578924244563822E-06</v>
+        <v>1.57892429938476E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999992156138</v>
+        <v>-179.9999992156139</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -21241,22 +21241,22 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217871</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547486</v>
+        <v>0.6350853291547492</v>
       </c>
       <c r="Q16">
-        <v>1.13789837495421E-06</v>
+        <v>1.137898416459741E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.999999247278</v>
+        <v>-179.9999992472781</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -21300,22 +21300,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217871</v>
+        <v>0.6350852930217878</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547486</v>
+        <v>0.6350853291547492</v>
       </c>
       <c r="Q17">
-        <v>1.13789837495421E-06</v>
+        <v>1.137898416459741E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999247278</v>
+        <v>-179.9999992472781</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -21359,22 +21359,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803312</v>
+        <v>0.6350852881803325</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257936</v>
+        <v>0.6350853379257945</v>
       </c>
       <c r="Q18">
-        <v>1.799437235559732E-06</v>
+        <v>1.79943727663321E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991997817</v>
+        <v>-179.9999991997818</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -21418,22 +21418,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285731</v>
+        <v>0.6350852860285745</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240355</v>
+        <v>0.6350853418240366</v>
       </c>
       <c r="Q19">
-        <v>2.093454532868185E-06</v>
+        <v>2.093454560153731E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786722</v>
+        <v>-179.9999991786724</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -21477,22 +21477,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147546</v>
+        <v>0.6350852844147561</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477172</v>
+        <v>0.6350853447477182</v>
       </c>
       <c r="Q20">
-        <v>2.313967525313007E-06</v>
+        <v>2.313967526108004E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991628401</v>
+        <v>-179.9999991628403</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -21536,22 +21536,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.635085283876815</v>
+        <v>0.6350852838768165</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853457222776</v>
+        <v>0.6350853457222787</v>
       </c>
       <c r="Q21">
-        <v>2.387471830377865E-06</v>
+        <v>2.387471836955703E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991575627</v>
+        <v>-179.9999991575629</v>
       </c>
     </row>
   </sheetData>
@@ -21643,7 +21643,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114189</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
         <v>333.3333522545259</v>
@@ -21655,34 +21655,34 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448016</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228447360333368E-09</v>
+        <v>4.228433535000502E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999948365</v>
+        <v>-179.9999999948366</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -21726,16 +21726,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478033</v>
+        <v>0.6350852933478028</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853280315722</v>
+        <v>0.6350853280315721</v>
       </c>
       <c r="Q3">
-        <v>1.037873707390863E-06</v>
+        <v>1.037873682888171E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21785,22 +21785,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269522</v>
+        <v>0.6350852831269516</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482217</v>
+        <v>0.6350853465482212</v>
       </c>
       <c r="Q4">
-        <v>2.434455712448659E-06</v>
+        <v>2.434455684703729E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999991224675</v>
+        <v>-179.9999991224676</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -21844,16 +21844,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852852787094</v>
+        <v>0.6350852852787092</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853426499793</v>
+        <v>0.6350853426499792</v>
       </c>
       <c r="Q5">
-        <v>2.140438388488803E-06</v>
+        <v>2.140438371379319E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21903,16 +21903,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510718</v>
+        <v>0.6350852820510716</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973422</v>
+        <v>0.6350853484973421</v>
       </c>
       <c r="Q6">
-        <v>2.581464278355642E-06</v>
+        <v>2.581464261246206E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21962,16 +21962,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613738</v>
+        <v>0.6350852793613736</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701448</v>
+        <v>0.6350853533701444</v>
       </c>
       <c r="Q7">
-        <v>2.948985862119991E-06</v>
+        <v>2.948985845010595E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22021,16 +22021,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234344</v>
+        <v>0.6350852788234341</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447053</v>
+        <v>0.6350853543447051</v>
       </c>
       <c r="Q8">
-        <v>3.022490185345256E-06</v>
+        <v>3.022490162453037E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -22080,16 +22080,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475552</v>
+        <v>0.6350852777475549</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6350853562938261</v>
+        <v>0.6350853562938259</v>
       </c>
       <c r="Q9">
-        <v>3.169498803092419E-06</v>
+        <v>3.169498785983045E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22139,16 +22139,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716758</v>
+        <v>0.6350852766716755</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429471</v>
+        <v>0.635085358242947</v>
       </c>
       <c r="Q10">
-        <v>3.316507414893807E-06</v>
+        <v>3.316507403567272E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22198,16 +22198,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337361</v>
+        <v>0.6350852761337357</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175075</v>
+        <v>0.6350853592175074</v>
       </c>
       <c r="Q11">
-        <v>3.390011732565501E-06</v>
+        <v>3.390011727021798E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22257,16 +22257,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339839</v>
+        <v>0.6350852917339834</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552538</v>
+        <v>0.6350853309552534</v>
       </c>
       <c r="Q12">
-        <v>1.258386621110406E-06</v>
+        <v>1.258386591515016E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22316,16 +22316,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339839</v>
+        <v>0.6350852917339834</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552538</v>
+        <v>0.6350853309552534</v>
       </c>
       <c r="Q13">
-        <v>1.258386621110406E-06</v>
+        <v>1.258386591515016E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22375,16 +22375,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.635085290120166</v>
+        <v>0.6350852901201656</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789354</v>
+        <v>0.6350853338789353</v>
       </c>
       <c r="Q14">
-        <v>1.478899588835098E-06</v>
+        <v>1.478899554218753E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442864</v>
+        <v>0.6350852890442862</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -22443,7 +22443,7 @@
         <v>0.6350853358280562</v>
       </c>
       <c r="Q15">
-        <v>1.625908199371274E-06</v>
+        <v>1.625908182261734E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -22493,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719237</v>
+        <v>0.6350852922719235</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -22502,7 +22502,7 @@
         <v>0.6350853299806931</v>
       </c>
       <c r="Q16">
-        <v>1.184882317568349E-06</v>
+        <v>1.184882287972955E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719237</v>
+        <v>0.6350852922719235</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>0.6350853299806931</v>
       </c>
       <c r="Q17">
-        <v>1.184882317568349E-06</v>
+        <v>1.184882287972955E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -22611,22 +22611,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852874304684</v>
+        <v>0.635085287430468</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517377</v>
+        <v>0.6350853387517376</v>
       </c>
       <c r="Q18">
-        <v>1.846421170085454E-06</v>
+        <v>1.846421142179209E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991646864</v>
+        <v>-179.9999991646865</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -22670,16 +22670,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787106</v>
+        <v>0.6350852852787099</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499797</v>
+        <v>0.6350853426499796</v>
       </c>
       <c r="Q19">
-        <v>2.140438433754174E-06</v>
+        <v>2.140438415716232E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -22729,22 +22729,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852836648918</v>
+        <v>0.635085283664891</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736613</v>
+        <v>0.6350853455736608</v>
       </c>
       <c r="Q20">
-        <v>2.360951394978168E-06</v>
+        <v>2.360951382021436E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999991277449</v>
+        <v>-179.999999127745</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -22788,22 +22788,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269523</v>
+        <v>0.6350852831269516</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482217</v>
+        <v>0.6350853465482214</v>
       </c>
       <c r="Q21">
-        <v>2.434455705930473E-06</v>
+        <v>2.434455681408091E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999991224675</v>
+        <v>-179.9999991224676</v>
       </c>
     </row>
   </sheetData>
@@ -22901,19 +22901,19 @@
         <v>5.123517322003456</v>
       </c>
       <c r="H2">
-        <v>0.01094540887219822</v>
+        <v>0.01094540887219821</v>
       </c>
       <c r="I2">
-        <v>0.1094540870723597</v>
+        <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646417</v>
+        <v>0.01094540889646412</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -23105,7 +23105,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q5">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -23453,13 +23453,13 @@
         <v>1.096496877509463</v>
       </c>
       <c r="O11">
-        <v>1.086862152100594</v>
+        <v>1.086862152100595</v>
       </c>
       <c r="P11">
-        <v>1.09035255705797</v>
+        <v>1.090352557057971</v>
       </c>
       <c r="Q11">
-        <v>29.52465668972898</v>
+        <v>29.52465668972899</v>
       </c>
       <c r="R11">
         <v>-90.55768081187988</v>
@@ -23872,7 +23872,7 @@
         <v>1.090352556961868</v>
       </c>
       <c r="Q18">
-        <v>29.52465667761588</v>
+        <v>29.52465667761587</v>
       </c>
       <c r="R18">
         <v>-90.55768083994768</v>
@@ -23931,7 +23931,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q19">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R19">
         <v>-90.55768083460144</v>
@@ -23987,10 +23987,10 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165357</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24159,13 +24159,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714034</v>
+        <v>0.01094540889714033</v>
       </c>
       <c r="K2">
         <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646416</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -24298,10 +24298,10 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q4">
-        <v>29.52465668254692</v>
+        <v>29.52465668254691</v>
       </c>
       <c r="R4">
-        <v>-90.55768082819934</v>
+        <v>-90.55768082819935</v>
       </c>
       <c r="S4">
         <v>149.9221296305045</v>
@@ -24537,7 +24537,7 @@
         <v>29.52465668716144</v>
       </c>
       <c r="R8">
-        <v>-90.55768081750686</v>
+        <v>-90.55768081750685</v>
       </c>
       <c r="S8">
         <v>149.9221296365125</v>
@@ -25301,7 +25301,7 @@
         <v>1.090352556997493</v>
       </c>
       <c r="Q21">
-        <v>29.52465668254692</v>
+        <v>29.52465668254691</v>
       </c>
       <c r="R21">
         <v>-90.55768082819935</v>
@@ -25405,19 +25405,19 @@
         <v>266.6666760320133</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -25429,10 +25429,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691848033</v>
+        <v>0.577350269184803</v>
       </c>
       <c r="Q2">
-        <v>4.534673354506667E-09</v>
+        <v>4.534680675717328E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -25482,16 +25482,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393519</v>
+        <v>0.5773502543393532</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594383</v>
+        <v>0.5773502855594395</v>
       </c>
       <c r="Q3">
-        <v>1.029154345015819E-06</v>
+        <v>1.029154399897922E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -25541,22 +25541,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350248516828</v>
+        <v>0.577350248516829</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619087</v>
+        <v>0.5773503058619095</v>
       </c>
       <c r="Q4">
-        <v>3.022040468265112E-06</v>
+        <v>3.022040183878288E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426207</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877034</v>
+        <v>0.577350301587705</v>
       </c>
       <c r="Q5">
-        <v>2.602485408817641E-06</v>
+        <v>2.602485328888716E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -25659,22 +25659,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039284</v>
+        <v>0.5773502479039322</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990113</v>
       </c>
       <c r="Q6">
-        <v>3.231817830944287E-06</v>
+        <v>3.231817709199556E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788955</v>
+        <v>-179.9999997788956</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -25718,22 +25718,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716851</v>
+        <v>0.5773502463716895</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417663</v>
       </c>
       <c r="Q7">
-        <v>3.756261519904946E-06</v>
+        <v>3.756261355173333E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094306</v>
+        <v>-179.9999999094307</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -25777,22 +25777,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652365</v>
+        <v>0.5773502460652408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103175</v>
       </c>
       <c r="Q8">
-        <v>3.861150257178517E-06</v>
+        <v>3.861150080197962E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355376</v>
+        <v>-179.9999999355377</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523393</v>
+        <v>0.5773502454523436</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474182</v>
+        <v>0.5773503165474196</v>
       </c>
       <c r="Q9">
-        <v>4.070927726262914E-06</v>
+        <v>4.07092755328945E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877517</v>
+        <v>-179.9999999877518</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -25895,22 +25895,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394421</v>
+        <v>0.5773502448394466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845219</v>
       </c>
       <c r="Q10">
-        <v>4.280705190945727E-06</v>
+        <v>4.280705026337188E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600197</v>
+        <v>179.9999999600196</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -25954,22 +25954,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329936</v>
+        <v>0.5773502445329981</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530715</v>
+        <v>0.577350319753073</v>
       </c>
       <c r="Q11">
-        <v>4.385593927739837E-06</v>
+        <v>4.385593765357783E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339126</v>
+        <v>179.9999999339125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -26013,16 +26013,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200059</v>
+        <v>0.5773502534200075</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650916</v>
+        <v>0.577350288765093</v>
       </c>
       <c r="Q12">
-        <v>1.343820526509841E-06</v>
+        <v>1.343820590061263E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26072,16 +26072,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200059</v>
+        <v>0.5773502534200075</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.577350288765093</v>
       </c>
       <c r="Q13">
-        <v>1.343820526509841E-06</v>
+        <v>1.343820590061263E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26131,16 +26131,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006601</v>
+        <v>0.5773502525006612</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707446</v>
+        <v>0.5773502919707459</v>
       </c>
       <c r="Q14">
-        <v>1.658486810509718E-06</v>
+        <v>1.658486766224535E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -26190,16 +26190,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877619</v>
+        <v>0.577350251887764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.5773502941078478</v>
       </c>
       <c r="Q15">
-        <v>1.868264237802119E-06</v>
+        <v>1.86826421918656E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -26249,16 +26249,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264545</v>
+        <v>0.577350253726456</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965418</v>
       </c>
       <c r="Q16">
-        <v>1.238931803656492E-06</v>
+        <v>1.23893186498143E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -26308,16 +26308,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264545</v>
+        <v>0.577350253726456</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965418</v>
       </c>
       <c r="Q17">
-        <v>1.238931803656492E-06</v>
+        <v>1.23893186498143E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -26367,16 +26367,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.577350250968417</v>
+        <v>0.577350250968418</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135</v>
+        <v>0.5773502973135013</v>
       </c>
       <c r="Q18">
-        <v>2.182930520877456E-06</v>
+        <v>2.182930379312997E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426224</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877042</v>
+        <v>0.5773503015877055</v>
       </c>
       <c r="Q19">
-        <v>2.60248549653614E-06</v>
+        <v>2.602485271113977E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222534</v>
+        <v>-179.9999996222533</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -26485,22 +26485,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232767</v>
+        <v>0.5773502488232776</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933576</v>
+        <v>0.5773503047933585</v>
       </c>
       <c r="Q20">
-        <v>2.917151727305466E-06</v>
+        <v>2.917151453385768E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005745</v>
+        <v>-179.9999997005744</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -26544,22 +26544,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168281</v>
+        <v>0.5773502485168289</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619086</v>
+        <v>0.5773503058619095</v>
       </c>
       <c r="Q21">
-        <v>3.022040451520668E-06</v>
+        <v>3.022040171713137E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
     </row>
   </sheetData>
@@ -26986,7 +26986,7 @@
         <v>1.086862152221152</v>
       </c>
       <c r="G18">
-        <v>-0.5576808399514955</v>
+        <v>-0.5576808399514956</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -27009,7 +27009,7 @@
         <v>1.086862152198252</v>
       </c>
       <c r="G19">
-        <v>-0.5576808346052483</v>
+        <v>-0.5576808346052484</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -27055,7 +27055,7 @@
         <v>1.086862152175352</v>
       </c>
       <c r="G21">
-        <v>-0.5576808292590011</v>
+        <v>-0.5576808292590012</v>
       </c>
     </row>
   </sheetData>
@@ -27153,19 +27153,19 @@
         <v>266.6666760320133</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -27177,10 +27177,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.5773502691848033</v>
+        <v>0.577350269184803</v>
       </c>
       <c r="Q2">
-        <v>4.534673354506667E-09</v>
+        <v>4.534680675717328E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -27230,16 +27230,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5773502543393519</v>
+        <v>0.5773502543393532</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5773502855594383</v>
+        <v>0.5773502855594395</v>
       </c>
       <c r="Q3">
-        <v>1.029154345015819E-06</v>
+        <v>1.029154399897922E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -27289,22 +27289,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.577350248516828</v>
+        <v>0.577350248516829</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619087</v>
+        <v>0.5773503058619095</v>
       </c>
       <c r="Q4">
-        <v>3.022040468265112E-06</v>
+        <v>3.022040183878288E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -27348,22 +27348,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773502497426207</v>
+        <v>0.5773502497426237</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877034</v>
+        <v>0.577350301587705</v>
       </c>
       <c r="Q5">
-        <v>2.602485408817641E-06</v>
+        <v>2.602485328888716E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222533</v>
+        <v>-179.9999996222534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -27407,22 +27407,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773502479039284</v>
+        <v>0.5773502479039322</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990097</v>
+        <v>0.5773503079990113</v>
       </c>
       <c r="Q6">
-        <v>3.231817830944287E-06</v>
+        <v>3.231817709199556E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788955</v>
+        <v>-179.9999997788956</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -27466,22 +27466,22 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773502463716851</v>
+        <v>0.5773502463716895</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417663</v>
       </c>
       <c r="Q7">
-        <v>3.756261519904946E-06</v>
+        <v>3.756261355173333E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094306</v>
+        <v>-179.9999999094307</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -27525,22 +27525,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5773502460652365</v>
+        <v>0.5773502460652408</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103175</v>
       </c>
       <c r="Q8">
-        <v>3.861150257178517E-06</v>
+        <v>3.861150080197962E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999999355376</v>
+        <v>-179.9999999355377</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773502454523393</v>
+        <v>0.5773502454523436</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474182</v>
+        <v>0.5773503165474196</v>
       </c>
       <c r="Q9">
-        <v>4.070927726262914E-06</v>
+        <v>4.07092755328945E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877517</v>
+        <v>-179.9999999877518</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -27643,22 +27643,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394421</v>
+        <v>0.5773502448394466</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845219</v>
       </c>
       <c r="Q10">
-        <v>4.280705190945727E-06</v>
+        <v>4.280705026337188E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999999600197</v>
+        <v>179.9999999600196</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -27702,22 +27702,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329936</v>
+        <v>0.5773502445329981</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530715</v>
+        <v>0.577350319753073</v>
       </c>
       <c r="Q11">
-        <v>4.385593927739837E-06</v>
+        <v>4.385593765357783E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339126</v>
+        <v>179.9999999339125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -27761,16 +27761,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5773502534200059</v>
+        <v>0.5773502534200075</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650916</v>
+        <v>0.577350288765093</v>
       </c>
       <c r="Q12">
-        <v>1.343820526509841E-06</v>
+        <v>1.343820590061263E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -27820,16 +27820,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502534200059</v>
+        <v>0.5773502534200075</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650916</v>
+        <v>0.577350288765093</v>
       </c>
       <c r="Q13">
-        <v>1.343820526509841E-06</v>
+        <v>1.343820590061263E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -27879,16 +27879,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006601</v>
+        <v>0.5773502525006612</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707446</v>
+        <v>0.5773502919707459</v>
       </c>
       <c r="Q14">
-        <v>1.658486810509718E-06</v>
+        <v>1.658486766224535E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -27938,16 +27938,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877619</v>
+        <v>0.577350251887764</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.5773502941078478</v>
       </c>
       <c r="Q15">
-        <v>1.868264237802119E-06</v>
+        <v>1.86826421918656E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -27997,16 +27997,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502537264545</v>
+        <v>0.577350253726456</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965418</v>
       </c>
       <c r="Q16">
-        <v>1.238931803656492E-06</v>
+        <v>1.23893186498143E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264545</v>
+        <v>0.577350253726456</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965406</v>
+        <v>0.5773502876965418</v>
       </c>
       <c r="Q17">
-        <v>1.238931803656492E-06</v>
+        <v>1.23893186498143E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -28115,16 +28115,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.577350250968417</v>
+        <v>0.577350250968418</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973135</v>
+        <v>0.5773502973135013</v>
       </c>
       <c r="Q18">
-        <v>2.182930520877456E-06</v>
+        <v>2.182930379312997E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -28174,22 +28174,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426224</v>
+        <v>0.5773502497426233</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877042</v>
+        <v>0.5773503015877055</v>
       </c>
       <c r="Q19">
-        <v>2.60248549653614E-06</v>
+        <v>2.602485271113977E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999996222534</v>
+        <v>-179.9999996222533</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -28233,22 +28233,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232767</v>
+        <v>0.5773502488232776</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933576</v>
+        <v>0.5773503047933585</v>
       </c>
       <c r="Q20">
-        <v>2.917151727305466E-06</v>
+        <v>2.917151453385768E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-179.9999997005745</v>
+        <v>-179.9999997005744</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -28292,22 +28292,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168281</v>
+        <v>0.5773502485168289</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619086</v>
+        <v>0.5773503058619095</v>
       </c>
       <c r="Q21">
-        <v>3.022040451520668E-06</v>
+        <v>3.022040171713137E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-179.9999997266815</v>
+        <v>-179.9999997266814</v>
       </c>
     </row>
   </sheetData>
@@ -28405,19 +28405,19 @@
         <v>4.650135750724414</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -28550,7 +28550,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -28603,7 +28603,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -28659,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397393</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -28668,7 +28668,7 @@
         <v>0.9900480149626345</v>
       </c>
       <c r="Q6">
-        <v>29.4607573220152</v>
+        <v>29.46075732201519</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -28718,7 +28718,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -28727,7 +28727,7 @@
         <v>0.9900480150177871</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -28783,7 +28783,7 @@
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288176</v>
+        <v>0.9900480150288177</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -28845,7 +28845,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -28895,13 +28895,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9963798866575332</v>
+        <v>0.9963798866575334</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
       </c>
       <c r="P10">
-        <v>0.9900480150729397</v>
+        <v>0.9900480150729396</v>
       </c>
       <c r="Q10">
         <v>29.46075733198628</v>
@@ -28954,7 +28954,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493127</v>
+        <v>0.9963798866493128</v>
       </c>
       <c r="O11">
         <v>0.9864427566062498</v>
@@ -28963,7 +28963,7 @@
         <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
-        <v>29.4607573329834</v>
+        <v>29.46075733298339</v>
       </c>
       <c r="R11">
         <v>-90.63269602529786</v>
@@ -29016,7 +29016,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
         <v>0.9900480147640851</v>
@@ -29025,10 +29025,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -29075,7 +29075,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
@@ -29084,10 +29084,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -29131,16 +29131,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630488</v>
+        <v>0.9963798868630489</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971764</v>
+        <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705856</v>
+        <v>29.46075730705855</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -29367,7 +29367,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219457</v>
+        <v>0.9963798868219458</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -29379,7 +29379,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.6326960657122</v>
+        <v>-90.63269606571221</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -29429,7 +29429,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -29485,13 +29485,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644015</v>
+        <v>0.9963798867644014</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.990048014929543</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
@@ -29553,7 +29553,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -29657,19 +29657,19 @@
         <v>4.650135750724414</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778101</v>
+        <v>0.012437964627781</v>
       </c>
       <c r="I2">
         <v>0.1243796444003516</v>
       </c>
       <c r="J2">
-        <v>0.01243796466366948</v>
+        <v>0.0124379646636695</v>
       </c>
       <c r="K2">
-        <v>0.1243796444019062</v>
+        <v>0.1243796444019063</v>
       </c>
       <c r="L2">
-        <v>0.01243796465911621</v>
+        <v>0.0124379646591162</v>
       </c>
       <c r="M2">
         <v>0.1243796443940133</v>
@@ -29802,7 +29802,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -29855,7 +29855,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -29911,7 +29911,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9963798867397393</v>
+        <v>0.9963798867397394</v>
       </c>
       <c r="O6">
         <v>0.9864427565773003</v>
@@ -29920,7 +29920,7 @@
         <v>0.9900480149626345</v>
       </c>
       <c r="Q6">
-        <v>29.4607573220152</v>
+        <v>29.46075732201519</v>
       </c>
       <c r="R6">
         <v>-90.63269604646727</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -29979,7 +29979,7 @@
         <v>0.9900480150177871</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -30035,7 +30035,7 @@
         <v>0.9864427565930908</v>
       </c>
       <c r="P8">
-        <v>0.9900480150288176</v>
+        <v>0.9900480150288177</v>
       </c>
       <c r="Q8">
         <v>29.46075732799785</v>
@@ -30097,7 +30097,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -30147,13 +30147,13 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9963798866575332</v>
+        <v>0.9963798866575334</v>
       </c>
       <c r="O10">
         <v>0.9864427566036181</v>
       </c>
       <c r="P10">
-        <v>0.9900480150729397</v>
+        <v>0.9900480150729396</v>
       </c>
       <c r="Q10">
         <v>29.46075733198628</v>
@@ -30206,7 +30206,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9963798866493127</v>
+        <v>0.9963798866493128</v>
       </c>
       <c r="O11">
         <v>0.9864427566062498</v>
@@ -30215,7 +30215,7 @@
         <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
-        <v>29.4607573329834</v>
+        <v>29.46075733298339</v>
       </c>
       <c r="R11">
         <v>-90.63269602529786</v>
@@ -30268,7 +30268,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
         <v>0.9900480147640851</v>
@@ -30277,10 +30277,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R12">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S12">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -30327,7 +30327,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P13">
         <v>0.9900480147640851</v>
@@ -30336,10 +30336,10 @@
         <v>29.46075730406723</v>
       </c>
       <c r="R13">
-        <v>-90.63269608110814</v>
+        <v>-90.63269608110812</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -30383,16 +30383,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630488</v>
+        <v>0.9963798868630489</v>
       </c>
       <c r="O14">
-        <v>0.9864427565378235</v>
+        <v>0.9864427565378237</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971764</v>
+        <v>0.9900480147971766</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705856</v>
+        <v>29.46075730705855</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -30619,7 +30619,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219457</v>
+        <v>0.9963798868219458</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -30631,7 +30631,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.6326960657122</v>
+        <v>-90.63269606571221</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -30681,7 +30681,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O19">
-        <v>0.9864427565615095</v>
+        <v>0.9864427565615096</v>
       </c>
       <c r="P19">
         <v>0.9900480148964513</v>
@@ -30737,13 +30737,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644015</v>
+        <v>0.9963798867644014</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.990048014929543</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
@@ -30805,7 +30805,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002098</v>
+        <v>29.46075732002097</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -30893,7 +30893,7 @@
         <v>1.086862152270357</v>
       </c>
       <c r="G3">
-        <v>-0.5576808535978321</v>
+        <v>-0.5576808535978324</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -30916,7 +30916,7 @@
         <v>1.086862152161582</v>
       </c>
       <c r="G4">
-        <v>-0.5576808282031587</v>
+        <v>-0.557680828203159</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -30939,7 +30939,7 @@
         <v>1.086862152184481</v>
       </c>
       <c r="G5">
-        <v>-0.5576808335494056</v>
+        <v>-0.5576808335494057</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -30962,7 +30962,7 @@
         <v>1.086862152150132</v>
       </c>
       <c r="G6">
-        <v>-0.5576808255300347</v>
+        <v>-0.557680825530035</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -30985,7 +30985,7 @@
         <v>1.086862152121506</v>
       </c>
       <c r="G7">
-        <v>-0.5576808188472258</v>
+        <v>-0.557680818847226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -31008,7 +31008,7 @@
         <v>1.086862152115781</v>
       </c>
       <c r="G8">
-        <v>-0.5576808175106642</v>
+        <v>-0.5576808175106643</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -31031,7 +31031,7 @@
         <v>1.086862152104331</v>
       </c>
       <c r="G9">
-        <v>-0.5576808148375405</v>
+        <v>-0.5576808148375406</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -31054,7 +31054,7 @@
         <v>1.086862152092881</v>
       </c>
       <c r="G10">
-        <v>-0.5576808121644168</v>
+        <v>-0.5576808121644169</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -31100,7 +31100,7 @@
         <v>1.086862152253182</v>
       </c>
       <c r="G12">
-        <v>-0.5576808495881468</v>
+        <v>-0.5576808495881469</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -31123,7 +31123,7 @@
         <v>1.086862152253182</v>
       </c>
       <c r="G13">
-        <v>-0.5576808495881468</v>
+        <v>-0.5576808495881469</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31146,7 +31146,7 @@
         <v>1.086862152236007</v>
       </c>
       <c r="G14">
-        <v>-0.5576808455784618</v>
+        <v>-0.557680845578462</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -31192,7 +31192,7 @@
         <v>1.086862152258907</v>
       </c>
       <c r="G16">
-        <v>-0.5576808509247085</v>
+        <v>-0.5576808509247088</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -31215,7 +31215,7 @@
         <v>1.086862152258907</v>
       </c>
       <c r="G17">
-        <v>-0.5576808509247085</v>
+        <v>-0.5576808509247088</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -31238,7 +31238,7 @@
         <v>1.086862152207382</v>
       </c>
       <c r="G18">
-        <v>-0.5576808388956529</v>
+        <v>-0.5576808388956532</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -31261,7 +31261,7 @@
         <v>1.086862152184481</v>
       </c>
       <c r="G19">
-        <v>-0.5576808335494059</v>
+        <v>-0.5576808335494062</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -31284,7 +31284,7 @@
         <v>1.086862152167306</v>
       </c>
       <c r="G20">
-        <v>-0.5576808295397205</v>
+        <v>-0.5576808295397209</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -31307,7 +31307,7 @@
         <v>1.086862152161582</v>
       </c>
       <c r="G21">
-        <v>-0.5576808282031587</v>
+        <v>-0.5576808282031591</v>
       </c>
     </row>
   </sheetData>
@@ -31357,7 +31357,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -31853,7 +31853,7 @@
         <v>800.0000280430305</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32349,7 +32349,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32381,7 +32381,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862196</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32404,7 +32404,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.6326960503208694</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32427,7 +32427,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188397</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32450,7 +32450,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718877</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32470,10 +32470,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.986442756589121</v>
+        <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494277</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32493,10 +32493,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9864427565917526</v>
+        <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249356</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32516,10 +32516,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9864427565970162</v>
+        <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.6326960310759517</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -32539,10 +32539,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9864427566022798</v>
+        <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269676</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -32562,7 +32562,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9864427566049115</v>
+        <v>0.9864427566049117</v>
       </c>
       <c r="G11">
         <v>-0.6326960253024758</v>
@@ -32588,7 +32588,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -32611,7 +32611,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -32634,7 +32634,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392669</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -32657,7 +32657,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902835</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -32677,10 +32677,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -32726,7 +32726,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168064</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -32749,7 +32749,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188379</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -32772,7 +32772,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.6326960522453615</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -32795,7 +32795,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.6326960503208695</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
@@ -32845,7 +32845,7 @@
         <v>13.95040725215016</v>
       </c>
       <c r="D2">
-        <v>0.01243796466415786</v>
+        <v>0.01243796466415785</v>
       </c>
       <c r="E2">
         <v>0.1243796443940179</v>
@@ -32877,7 +32877,7 @@
         <v>0.9864427565206948</v>
       </c>
       <c r="G3">
-        <v>-0.6326960868862196</v>
+        <v>-0.6326960868862205</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32900,7 +32900,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G4">
-        <v>-0.6326960503208694</v>
+        <v>-0.6326960503208722</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32923,7 +32923,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G5">
-        <v>-0.6326960580188397</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32946,7 +32946,7 @@
         <v>0.986442756575962</v>
       </c>
       <c r="G6">
-        <v>-0.6326960464718877</v>
+        <v>-0.632696046471888</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32966,10 +32966,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.986442756589121</v>
+        <v>0.9864427565891211</v>
       </c>
       <c r="G7">
-        <v>-0.6326960368494277</v>
+        <v>-0.632696036849428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32989,10 +32989,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9864427565917526</v>
+        <v>0.9864427565917528</v>
       </c>
       <c r="G8">
-        <v>-0.6326960349249356</v>
+        <v>-0.632696034924936</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -33012,10 +33012,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9864427565970162</v>
+        <v>0.9864427565970163</v>
       </c>
       <c r="G9">
-        <v>-0.6326960310759517</v>
+        <v>-0.6326960310759518</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -33035,10 +33035,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9864427566022798</v>
+        <v>0.9864427566022799</v>
       </c>
       <c r="G10">
-        <v>-0.6326960272269676</v>
+        <v>-0.6326960272269678</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -33058,7 +33058,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9864427566049115</v>
+        <v>0.9864427566049117</v>
       </c>
       <c r="G11">
         <v>-0.6326960253024758</v>
@@ -33084,7 +33084,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G12">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -33107,7 +33107,7 @@
         <v>0.98644275652859</v>
       </c>
       <c r="G13">
-        <v>-0.6326960811127436</v>
+        <v>-0.632696081112744</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -33130,7 +33130,7 @@
         <v>0.9864427565364854</v>
       </c>
       <c r="G14">
-        <v>-0.6326960753392669</v>
+        <v>-0.6326960753392682</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -33153,7 +33153,7 @@
         <v>0.986442756541749</v>
       </c>
       <c r="G15">
-        <v>-0.6326960714902835</v>
+        <v>-0.6326960714902844</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -33173,10 +33173,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G16">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -33196,10 +33196,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9864427565259583</v>
+        <v>0.9864427565259584</v>
       </c>
       <c r="G17">
-        <v>-0.6326960830372355</v>
+        <v>-0.632696083037236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -33222,7 +33222,7 @@
         <v>0.9864427565496443</v>
       </c>
       <c r="G18">
-        <v>-0.6326960657168064</v>
+        <v>-0.6326960657168081</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -33245,7 +33245,7 @@
         <v>0.9864427565601714</v>
       </c>
       <c r="G19">
-        <v>-0.6326960580188379</v>
+        <v>-0.6326960580188401</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -33268,7 +33268,7 @@
         <v>0.9864427565680668</v>
       </c>
       <c r="G20">
-        <v>-0.6326960522453615</v>
+        <v>-0.632696052245364</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -33291,7 +33291,7 @@
         <v>0.9864427565706986</v>
       </c>
       <c r="G21">
-        <v>-0.6326960503208695</v>
+        <v>-0.6326960503208721</v>
       </c>
     </row>
   </sheetData>
